--- a/biology/Botanique/Scrofulaire_des_chiens/Scrofulaire_des_chiens.xlsx
+++ b/biology/Botanique/Scrofulaire_des_chiens/Scrofulaire_des_chiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scrophularia canina
 Scrophularia canina, la scrofulaire des chiens (orthographe actuelle), est une plante herbacée de la famille des Scrofulariacées appartenant au genre Scrophularia.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hauteur : 20 à 60 cm
 Fleur : 4 à 5 mm
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette scrofulaire pousse dans les rocailles, les éboulis, alluvions, sols sableux et au bord des chemins. Les feuilles sont complètement divisées en lobes eux-mêmes découpés. Ses fleurs sont très discrètes, d’un beau pourpre taché de blanc, les étamines dépassant largement de la corolle. Ses feuilles sont pennées, très divisées.
 </t>
@@ -577,9 +593,11 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'INPN      (6 février 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'INPN      (6 février 2021) :
 sous-espèce : Scrophularia canina L., 1753 subsp. canina
 sous-espèce : Scrophularia canina subsp. bicolor (Sm.) Greuter, 1967
 sous-espèce : Scrophularia canina subsp. hoppii (W.D.J.Koch) P.Fourn., 1937
